--- a/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    I ask unanimous consent that the ranking member's statement be entered into the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -64,15 +61,9 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Carter. Thank you very much, Chairman Thornberry.    Congresswoman Davis, thank you.    Thanks, all the members of the committee. Thank you for hosting me here today.    I want to begin by condemning this morning's bombings in Belgium. Our thoughts and our prayers are with those affected by this tragedy, the victims, their families, and survivors. And in the face of these acts of terrorism, the United States stands in strong solidarity with our ally Belgium. We are continuing to monitor the situation, including to ensure that all U.S. personnel and citizens are accounted for. We also stand ready to provide assistance to our friends and allies in Europe, as necessary.    Brussels is an international city that has been host to NATO [North Atlantic Treaty Organization] and to the European Union [EU] for decades. Together, we must and we will continue to do everything we can to protect our homelands and defeat terrorists wherever they threaten us. No attack--no attack--will affect our resolve to accelerate the defeat of ISIL. I will have more to say about this later in the testimony.    Thank you again for hosting me today and for steadfastly supporting DOD's men and women all over the world, military and civilian, who serve and defend us. I am pleased to be here with Chairman Dunford, Under Secretary McCord, to discuss President Obama's 2017 defense budget, which marks a major inflection point for the Department of Defense.    As I will describe in detail, the threat from terrorism is one of the five challenges, as has been noted, that the United States now faces and will in the future. In this budget, we are taking the long view. We have to, because even as we fight today's fights, we must also be prepared for what might come 10, 20, or 30 years down the road.    Last fall's Bipartisan Budget Act gave us some much-needed stability after years of gridlock and turbulence. And I want to thank you and your colleagues for coming together to help pass it. That budget deal set the size of our budget, and with this degree of certainty, we focused on its shape, changing that shape in fundamental but carefully considered ways to adjust to a new strategic era and to seize opportunities for the future.    Let me describe the strategic assessment that drove our budget decisions. First of all, it is evident that America is still today the world's foremost leader, partner, and underwriter of stability and security in every region of the world, as we have been since World War II. That is thanks in large part to the unequivocal strength of the U.S. military.    And as we continue to fulfill this enduring role, it is also evident that we are entering a new strategic era. Today's security environment is dramatically different from the last 25 years, requiring new ways of investing and operating. Five evolving strategic challenges--namely, Russia, China, North Korea, Iran, and terrorism--are now driving DOD's planning and budgeting, as reflected in this budget.    I want to focus first on our ongoing fight against terrorism and especially ISIL, which as the attacks in Belgium today again remind us, we must and will deal a lasting defeat, most immediately in its parent tumor in Iraq and Syria but also where it is metastasizing, and all the while we are continuing to help protect our own homeland.    Let me give you a quick snapshot of what we are doing to pressure and destroy ISIL's parent tumor in Iraq and Syria. In Iraq, with our support, the Iraqi Security Forces retook Ramadi and are now reclaiming further ground in Anbar Province and are simultaneously shifting the weight of their effort towards Mosul in the north.    With our advice and assistance, Iraqi and Kurdish security forces have begun the shaping and isolation phase of the operation to collapse ISIL's control over Mosul. That was the mission Marine Staff Sergeant Louis Cardin was supporting when he gave his life over the weekend providing critical protection to Iraqi forces and coalition military advisers in northern Iraq. Our thoughts and prayers are with his family and with the other Marines injured in Saturday's rocket attack. Their sacrifice will not be forgotten, and our global coalition will complete the mission they were supporting.    In Syria, capable and motivated local forces supported by the United States in our global coalition have retaken the east Syrian town of Shaddadi. This town served as an important logistical and financial hub for ISIL and a key intersection between its Syria and Iraq operations. In fact, Shaddadi was so important to ISIL that its so-called minister of war was involved in ISIL's defense of the town. We killed him while our local partners expelled ISIL from the town. In doing so, the coalition campaign severed the last major northern artery between Raqqa and Mosul and, therefore, between ISIL and Syria and ISIL and Iraq. And we are intent on further isolating and pressuring ISIL, including by cutting off its remaining lines of communication in southern Syria and into Turkey.    In addition to local forces we are working with, 90 percent of our military and coalition partners from Europe, the Gulf, Asia, 26 countries in all, including, by the way, our ally Belgium, have committed to increase their contributions to help accelerate the defeat of ISIL.    We have increased strikes on ISIL-held cash depots, oil revenues, and sites associated with its ambitions to develop and use chemical weapons. And we are addressing ISIL's metastases as well, having conducted targeted strikes against ISIL in Libya and Afghanistan. As we are accelerating our overall counter-ISIL campaign, we are backing it up with increased funding for 2017, as the chairman already noted, requesting 50 percent more than last year.    Now, before I continue, I want to say a few words about Russia's role in this. Russia said it was coming into Syria to fight ISIL, but that is not what it did. Instead, their military has only prolonged the civil war, propped up Assad, and as of now, we haven't seen whether Russia has retained leverage over Assad to facilitate a diplomatic way forward, which is what the Syrian people need.    One thing is clear, though: Russia's entry into Syria didn't impact our campaign against ISIL. Along with our coalition partners, we are intensifying our campaign against ISIL in both Iraq and Syria and will continue to do so until ISIL is dealt a lasting defeat.    Two of the other four challenges reflect a return in some ways to great superpower competition. One is in Europe, where we are taking a strong and balanced approach to deter Russian aggression. We haven't had to devote a significant portion of our defense investment to this possibility for nearly a quarter century, but now we do.    The other challenge is in the Asia-Pacific, where China is rising, which is fine, but behaving aggressively, which is not. There, we are continuing our rebalance to the region to maintain the stability we have underwritten for the past 70 years, enabling so many nations to rise and prosper in this, the single most consequential region for America's future.    Meanwhile, two other longstanding challenges pose threats in specific regions: North Korea is one. That is why our forces on the Korean Peninsula remain ready, as they say, to fight tonight; the other is Iran, because while the nuclear accord is a good deal for preventing Iran from getting a nuclear weapon, we must still deter Iranian aggression and counter Iran's malign influence against our regional friends and allies, especially Israel, to which we maintain an unwavering and unbreakable commitment.    Now, addressing all of these five challenges requires new investments on our part, new posture in some regions, and also new and enhanced capabilities. For example, we know we must deal with these challenges across all domains and not just the usual air, land, and sea, but also especially in cyber, electronic warfare, and space, where our reliance on technology has given us great strengths and great opportunities but also led to vulnerabilities that our adversaries are eager to exploit.    Key to our approach is being able to deter our most advanced competitors. We must have and we seem to have the ability to ensure that anyone who starts a conflict with us will regret doing so. In our budget, our capabilities, our readiness, and our actions, we must and will be prepared for a high-end enemy, what we call full spectrum.    In this context, Russia and China are our most stressing competitors, as they have both developed and continue to advance military systems that seek to threaten our advantages in specific areas. We see them in the South China Sea and in Crimea and in Syria as well. In some cases, they are developing weapons and ways of war that seek to achieve their objectives rapidly before they think we can respond. Because of this, DOD has elevated their importance in our planning and budgeting.    In my written testimony, I have detailed how our budget makes critical investments to help us better address these five evolving challenges. We are strengthening our deterrence posture in Europe by investing $3.4 billion for our European Reassurance Initiative [ERI], quadruple what we requested last year.    We are prioritizing training and readiness for our ground forces, a very important matter emphasized very appropriately by the chairman, and reinvigorating the readiness and modernization of our fighter aircraft fleet. We are investing in innovative capabilities, like the B-21 Long Range Strike Bomber, micro-drone, and the arsenal plane, as well as advanced munitions of all sorts.    In our Navy, we are emphasizing not just increasing the number of ships, which we are doing, but especially their lethality, with new weapons and high-end ships, and extending our commanding lead in undersea warfare, with new investments in unmanned undersea vehicles, for example, and more submarines with the versatile Virginia Payload Module that triples their strike capacity from 12 Tomahawks to 40.    And we are doing more in cyber, electronic warfare, and space, investing in these three domains a combined total of $34 billion in 2017. Among other things, this will help us build our cyber mission force, develop next-generation electronic jammers, and prepare for the possibility of a conflict that extends into space. In short, DOD will keep ensuring our dominance in all domains.    As we do this, our budget also seizes opportunities for the future. That is a responsibility I have to all my successors, to ensure the military and the Defense Department they inherit is just as strong, if not stronger, than the one I have the privilege of leading today.    That is why we are making increased investments in science and technology, innovating operationally, and building new bridges to the amazing American innovative system, as we always have, to stay ahead of future threats. That is why we are building what I have called the force of the future, because as good as our technology is, it is nothing compared to our people.    And in the future, we must continue to recruit and retain the very best talent. Competing for good people, for an All-Volunteer Force, is a critical part of our military edge, and everyone should understand this need and my commitment to meeting it.    And because we owe it to America's taxpayers to spend our defense dollars as wisely and responsibly as possible, we are also pushing for needed reforms across the DOD enterprise, and we need your help with all of them. From further reducing overhead and excess infrastructure, to modernizing and simplifying TRICARE, to proposing new changes to the Goldwater-Nichols Act that defines much of our institutional organization, as I intend to do shortly, to continuously improving acquisitions.    And on that subject, I want to commend this committee, and especially its leaders, for your continued dedication and strong partnership with DOD on acquisition reform. We have already taken important strides here, such as last year's reforms to reduce redundant reporting requirements and documentation. And as you are looking to do more, so are we.    Chairman Thornberry, I know you laid out new proposals on this last week. Some of what you are proposing would save us critical time in staying ahead of emerging threats. That is very important, and we appreciate that. It is extremely helpful.    And I know this is just a draft, and I appreciate that you put it out there for discussion. In that regard, I have to say that, in the current draft, there are some things that are problematic for us, so I am also hopeful that we can continue to work with you on your proposals to ensure that DOD has the flexibility needed to apply the principles in your work to addressing all the diverse acquisition challenges we have to solve for our warfighters.    I appreciate your willingness to hear our ideas as well, including ways to make it easier for program managers to do their jobs, and involving the service chiefs more in acquisition decisionmaking and accountability. And I look forward to working together as we have before.    Let me close on the broader shift reflected in this budget. The Defense Department doesn't have the luxury of just one opponent or the choice between fights, between future fights and current fights. We have to do it all. That is what this budget is designed to do, and we need your help to succeed.    I thank this committee again for supporting the Bipartisan Budget Act that set the size of our budget. Our submission focuses on the budget shape, making changes that are necessary and consequential. We hope you approve it.    I know some may be looking at the difference between what we indicated last year we would be asking for and what the budget deal gave us: a net total of about $11 billion less is provided by the Bipartisan Budget Act out of a total of almost $600 billion. But I want to reiterate that we have mitigated that difference and that this budget meets our needs.    The budget deal was a good deal. It gave us stability. We are grateful for that. Our greatest risk, DOD's greatest risk is losing that stability this year and having uncertainty and sequester return in future years. That is why, going forward, the biggest budget priority for us strategically is Congress averting the return of sequestration to prevent what would be $100 billion in looming automatic cuts so that we can maintain stability and sustain all these critical investments I have been speaking of.    We have seen this before, and that same support coming together is essential today to address the security challenges we face and to seize the opportunities within our grasp. As long as we work together to do so, I know our national security will be on the right path and America's military will continue to defend our country and help make a better world for generations to come.    Thank you.    [The prepared statement of Secretary Carter can be found in the Appendix on page 67.]    The Chairman. Thank you, sir.    General Dunford.    General Dunford. Chairman Thornberry, Congresswoman Davis, distinguished members of the committee, good morning and thanks for the opportunity to join Secretary Carter and Secretary McCord in appearing before you.    I would like to begin by echoing Secretary Carter's comments on the loss of Staff Sergeant Cardin; his family, the eight other Marines who were injured this weekend, and the victims of this morning's attack in Brussels are in our thoughts and prayers.    I am honored to represent the extraordinary men and women of the joint force. Our soldiers, sailors, airmen, marines, and civil servants remain our single most important competitive advantage. And thanks to your support, the United States military is the most capable fighting force in the world.    I don't believe we should ever send Americans into a fair fight. Rather, we must maintain a joint force that has the capability and credibility to assure our allies and partners, deter aggression, and overmatch any potential adversary. This requires us to continually improve our joint warfighting capabilities, restore full-spectrum readiness, and develop the leaders who will serve as the foundation for the future.    The United States is now confronted with challenges from both traditional state actors and non-state actors. The Department has identified five strategic challenges, and Secretary Carter has outlined those. Russia, China, Iran, and North Korea continue to invest in military capabilities that reduce our competitive advantage.    They are also advancing their interests through competition with a military dimension that falls short of traditional armed conflict and the threshold for traditional military response. Examples include Russian actions in Ukraine, Chinese activities in the South China Sea, and Iran's malign influence across the Middle East.    At the same time, non-state actors, such as ISIL and Al Qaeda, pose a threat to the homeland, the American people, our partners, and our allies. Given the opportunity, such extremist groups would fundamentally change our way of life. As we contend with the Department's five strategic challenges, we recognize that successful execution of our defense strategy requires that we maintain credible nuclear and conventional capabilities.    Our strategic nuclear deterrent remains effective, but it is aging and requires modernization. Therefore, we are prioritizing investments needed for a safe, secure, and effective nuclear deterrent. We are also making investments to maintain a competitive advantage in conventional capabilities, and we must further develop capabilities in vital and increasingly contested domains of space and cyber space.    As the joint force acts to mitigate and respond to challenges, we do so in the context of a fiscal environment that has hampered our ability to plan and allocate resources most effectively. Despite partial relief by Congress from sequester-level funding, the Department has absorbed $800 billion in cuts and faces an additional $100 billion of sequestration-induced risk through fiscal year 2021.    Absorbing significant cuts over the past 5 years has resulted in our underinvesting in critical capabilities. And unless we reverse sequestration, we will be unable to execute the current defense strategy and specifically to address the challenges that Secretary Carter outlined in his remarks.    The fiscal year 2017 budget begins to address the most critical investments required to maintain our competitive advantage. To the extent possible, within the resources provided by the 2015 Bipartisan Budget Act, it addresses the Department's five challenges. It does so by balancing three major areas: investment in high-end capabilities; the capability and capacity to meet our current operational demands; and the need to rebuild readiness after an extended period of war. In the years ahead, we will need adequate funding levels and predictability to fully recover from over a decade at war and delayed modernization.    A bow wave of procurement requirements in the future include the Ohio-class replacement, continued cyber and space investments, and the Long Range Strike Bomber. It will also be several years before we fully restore full-spectrum readiness across the services and replenish our stocks of critical precision munitions. And I know the committee has heard from the service chiefs on the specifics of that readiness recovery.    In summary, I am satisfied that the fiscal year 2017 budget puts us on the right trajectory, but it will take your continued support to ensure the joint force has the depth, flexibility, readiness, and responsiveness that ensures our men and women never face a fair fight.    Once again, thank you for the opportunity to appear before you this morning, and I look forward to your questions.    [The prepared statement of General Dunford can be found in the Appendix on page 104.]    The Chairman. Thank you, sir.    Mr. McCord, I understand you do not have an oral statement. Is that correct?</t>
   </si>
   <si>
-    <t>McCord</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary McCord. That is correct, Mr. Chairman.    The Chairman. I appreciate you being here today as well.    Mr. Secretary, I think you are exactly right to condemn the attacks in Brussels, and you are exactly right to express sympathy for the victims. I think the question especially for this committee but for the American people is, okay, what are we going to do about it?    And in last year's bill, section 1222 asked the administration to provide a strategy for how we were actually going to implement the President's stated desire to degrade and destroy ISIS [Islamic State of Iraq and Syria]. And as I mentioned, it has been radio silent. We have heard not a word from anybody.    Now, to be fair, it is not just a matter for the Department of Defense. It is not just the military who will defeat ISIS, and the requirement in law was not just directed to the Department of Defense. But do you have any idea when we might see a strategy on how to beat ISIS?</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you.    Mr. Secretary, I am going to take you in a different direction, totally different subject. I want to personally thank you and especially thank Secretary Robert Work. I spent 13 years of my life trying to clear the names of two Marine pilots who crashed a V-22 Osprey in Marana, Arizona, on April 8 of the year 2000.    Secretary Carter, I want to thank Secretary Work publicly because he did something that I could not get the Marine Corps to do, and that is to look openly and evaluate the information that we had put together working with experts. Many of those were Marine pilots themselves. There were aeronautical engineers who came to the aid of saying that at the time, if you remember, that Secretary of Defense Cheney wanted to scrap the V-22 program. There was a lot of pressure. There was a lot of push by the Marine Corps to make sure that the V-22 was their plane for the future.    When I reached out and found Secretary Work, he spent the time to meet with me and spent several hours, days, researching all the information that we had put together. A team of experts helped me to put it together. And then he came back with his evaluation that the record needed to be corrected, that it was unfair to Colonel John Brow, pilot, and Major Brooks Gruber, copilot, whose wife brought this to my attention in the year 2002.    And I want to say today that you have brought peace--Secretary Work and you--have brought peace to the families of John Brow and Brooks Gruber. And I believe sincerely that John Brow and Brooks Gruber are now resting in their graves, and they are resting peacefully because of what you and Secretary Work have done.    This has gotten national attention. And I have talked to Trish Brow, and I have talked to Connie Gruber. They are hearing from marines who are now retired. They are hearing from friends from years passed who have said ``Hallelujah'' that now the truth is known and those two pilots will not take the blame for what was unfair at the time of the accident.    So I want to thank you publicly and thank Deputy Secretary Robert Work, because the truth is now known that they were not responsible for that accident. It was a combination of many, many factors. So I will give you a chance to respond, and then I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman.    Mr. Secretary, I think you have an obligation, certainly a right, to respond to something that former Deputy Director of CIA [Central Intelligence Agency] said yesterday in response to a question. He said that ISIL is winning, and he said based on two assessments: one, although there is less caliphate territory, they seem to be spreading their influence beyond the caliphate territory; and then, of course, in direct reference to the attacks in Brussels.    So I wanted to get your assessment about whether you think ISIL is winning, and if not, your assessment of the former Deputy Director of CIA's comments.</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mr. Chairman. And thank all of you gentlemen for being here.    General Dunford, it is always an honor to have the top uniformed officer in the United States before us, and so I am going to direct my questions to you since I only have 5 minutes. And I would like to first ask you a question we have been asking all of our officers before us. Did you submit your written remarks to anyone for approval or review other than someone under your direct command before you had to come before us?    General Dunford. Congressman, I did submit my remarks to the Office of Secretary of Defense as well as Office of Management and Budget. No changes were made in my written remarks as a result of that review.</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to both witnesses for your service and your testimony today. I just have a couple quick questions.    And, Secretary Carter, Admiral Stavridis, retired admiral, Under Secretary Stackley, Secretary Mabus have all appeared over the last couple of weeks, and we have talked about this question of the long view of the undersea fleet, which Admiral Harris and General Breedlove said at this point are kind of playing zone defense out there because of what is happening in the Pacific and the North Atlantic.    Again, this is a good budget in terms of investing, as you point out, in shipbuilding or submarine building, but down the road, you know, there is a possibility that we are going to see a dip at probably the worst possible time. And so I guess the question is, do you agree that this is an issue that we need to work on, as Secretary Stackley has promised, so that we, again, are able to keep our eyes focused on the long view in terms of that emerging challenge?</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>400279</t>
   </si>
   <si>
-    <t>Jeff Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Mr. Chairman.    General Dunford, looking back at the 2012-2014 Strategic Guidance and Defense Reviews, what specifically has changed in the geopolitical world? And based on those changes, is it safe to say that we need to look at--following on what Mr. Forbes said--recalibration or resizing of our current forces?    General Dunford. Congressman, thanks. I would say that the most significant changes: one has been Russia; two has been the rise of ISIL. We talked about the behavior of China in the South China Sea, and certainly the capability development of North Korea have all been a concern. Iran remains a concern, but, quite frankly, the trajectory that they have been on was predictable even as those strategy documents were written, and so I think we accounted for Iran; but in the four other areas, we have seen either capability development or behavior or a combination of the two that have significantly changed the operating environment over the last few years.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And welcome to our guests. It is always good to have you before us. And I think today's tragic events in Brussels really are a stark reminder of the many challenges that you all deal with every day and that we are here to support you with. And I especially appreciated both your comments on the need for budget stability as you deal with the challenges of today, but also with the need to look forward, because as we all know, and I remember a previous chairman, Ike Skelton, always commenting upon, that we plan for today but we never quite know where the next challenge is going to come from. And in the world we live in today, it is clear that they can come from many, many different places.    But, Secretary Carter, I also wanted to thank you for the emphasis that you have placed in this year's budget on research and development, really knowing that it is key to maintaining our technological edge, that in this rapidly changing environment, we have got to maintain our investments. And as many on the committee know, defense-related research and development has faced a disproportionately large cut over the past several years, far more than has been required under the Budget Control Act. So I was especially encouraged to see that the Department will be investing in two new facilities at MIT's [Massachusetts Institute of Technology's] Lincoln Lab. As you know, the lab has provided the Department with breakthrough advancements for decades, and I thank you for your support of the lab's revitalization and the important role that it plays in the Massachusetts innovation ecosystem. It is part of something much larger.    But I would like to turn to the issue of sexual assault prevention and response in the military. I have been troubled by a number of stories, including a series in the AP [Associated Press] and recent stories in the Washington Post, about senior officer sexual assault cases, which have called into question the transparency of the military justice system and the services' willingness to pursue allegations against officers. I understand that the Military Justice Review Group's proposal that was shared with this committee by the Department gives the Department 2 years to come up with a design for an online system of tracking cases and 2 years to implement that system. And I would encourage the Department to work with all speed to make the military justice system as transparent as possible. And I hope the Department will make the system open to survivors and the public as you move ahead.    But we have all heard the troubling accounts of victims of military sexual assault who are later retaliated against, those who seek recourse through the system of justice. Some 62 percent of victims have experienced social or professional retaliation, according to the Department's own survey data. And I have also read the Judicial Proceedings Panel recommendation to implement a standard retaliation reporting form. It is imperative to me that the Department track these incidents and hold those responsible accountable. It is key to maintaining the unit cohesion and all that is part of readiness as well.    So my questions are, Secretary Carter, what is the Department doing to ensure service members who report sexual assault aren't retaliated against?</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. Thank you for being here today.    With the attacks in Brussels, it is another reminder we are in a global war on terrorism, and it is continuing. And I just want you to know that I have faith in you, and we are counting on you to protect American families. And part of that is not forgetting 9/11. This is a continuing war; we will be in it for quite a while, but your service I know I appreciate as a grateful dad of four sons who have served in the military under you all's command.    General Dunford, as Chairman Thornberry has mentioned, we have serious concerns about the state of the Marine Corps aviation. Marine Corps aviators and maintainers at the Marine Corps Air Station in Beaufort, South Carolina, tell us how they have had to cannibalize parts from museum aircraft to get their current fleet in the air. They don't have the parts. They don't have the people. They are not getting the training. Furthermore, General Robert Neller has testified that there aren't enough aircraft to even meet our training and mission requirements. I am very concerned that if they had to deploy tomorrow, they would be sent into a fight unprepared and ill equipped.    How are we addressing this potential reality of an inability to respond to near-peer adversary or multi-adversary engagement? Beyond Marine Corps aviation, what else is at risk?</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman.    Secretary Carter, I would like to talk about the Rim of the Pacific exercises, or RIMPAC. In your letter last year to Senators McCain and Reid, you stated that you believe that China's participation in RIMPAC would advance cooperative approaches to common security challenges, increase transparency and mutual understanding, and integrate China into a cooperative forum. You also say that you may modify our defense engagement decisions based on evolving circumstances.    My question is, have you recently evaluated China, and have you made any changes to the invitation to the PLA [People's Liberation Army] navy to participate in this year's RIMPAC?</t>
   </si>
   <si>
@@ -307,9 +274,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Last week, General Milley stated before the committee, quote, that less than one-third of the Army forces are at acceptable readiness levels to conduct sustained ground combat in a full-spectrum environment against a highly lethal hybrid threat or near-peer adversary. Obviously, this statistic is undoubtedly alarming and illustrates that the risk associated with a less-than-ready military force is unacceptable.    All too often, we speak about military risk in terms of numbers and percentages as opposed to more real and tangible consequences. When asked a similar question last year about risk, then Chief of Staff, Army, General Ray Odierno, made clear that direct correlation existed between increased risk and loss of lives on the battlefield. Quite plainly, Odierno stated that people would die. While I apologize for my frankness, it is critically important that our colleagues in Congress and the general public clearly understand what is meant when you say ``risk.'' We are currently in the throes of our debate on the budget, and there are those who continue to say: We can accept increased risks; we can lower the costs; we can continue to accept sequestration or cuts.    General Dunford, would you please help us better understand what you mean when you say ``risk''? Is there a direct correlation between risk and loss of lives on the battlefield? And, also, is there a direct correlation between risk and winning, knowing that we now have issues with Russia, China, North Korea, and certainly ISIS? Could you give us an understanding of how the word ``risk'' translates?    General Dunford. Congressman, I can. First of all, there is a correlation between risk and casualties. And when I talk about risk against our objectives, I am talking about how long it will take and how many casualties we will suffer. Those are the two elements of risk that I refer to.    You mentioned sequestration, and I will tell you what the risk of sequestration is. The risk of sequestration--and I am talking now the $100 billion that still looms out there--means that we would have to go back and actually rewrite our strategy, and I am talking about the ends of our strategy. So when you talk about winning, there is a correlation also between our ability to win against the current adversaries that we have identified, the peer competitors that we have identified, and sequestration. And my assessment is that we will not be able to deal with the five challenges that Secretary Carter and I outlined in our opening remarks, the Russia, China, Iran, North Korea, and violent extremism. Were we to go to sequester-level funding, I can't imagine us being able to satisfactorily deal with those five challenges and, by the way, the challenges that we can't foresee.</t>
   </si>
   <si>
@@ -325,9 +289,6 @@
     <t xml:space="preserve">    Secretary Carter. We are going to have to agree to disagree about that, about whether we budgeted to BBA, because we believe we did. However, to answer what I gather is part of your question, namely what did we do about the difference between what we said last year we intended to request this year and what we requested this year. I addressed that earlier. That was a $22 billion difference that, because of OCO and some other economic adjustments that went our way, like fuel prices and so forth, ended up being a net of $11 billion. And I explained exactly what we did to adjust and mitigate risk associated with that $11 billion. We cut a lot of minor procurement programs. We scaled back some of our aircraft buys. We took it out of MILCON. That is how we accommodated the $11 billion. We can tell you in detail how that was done.    And I also explained what we didn't do. We didn't go into military pay to make up that difference. We didn't go into the readiness recovery plans that the Chairman has described and that are so critical to restore our readiness, including full-spectrum readiness for the Army and the other services. We didn't cancel any multiyear procurements or other major acquisition programs. And we didn't change any of our force structure targets, number of ships, Army end strength, or anything like that. We did what we did. We have described what it is. We believe that we were able to mitigate that risk, and that is what we did.    Our biggest risk going forward--I will just say it again; we have said it many times--the biggest risk to us strategically in our defense is a return to sequestration, a collapse of the bipartisan budget agreement, and that is our biggest concern.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Mr. Secretary, last week, we were able to listen to testimony from Acting Secretary of the Army Murphy and General Milley. And Secretary Murphy said, to continue this line of questioning on risk begun by Mr. Turner, said something to the effect of this budget places the Army at high risk. And prior to that, General Milley had made that connection explicit between risk and the loss of the service members' lives who we will put in harm's way. We reduce risk, we reduce that loss of life. So there couldn't be anything more serious or grave for us to make a decision on.    My question for you is, is that level of risk comparable in the other service branches? And what is your guidance to us as a committee going into the NDAA as a Congress that might look in the near future at supplemental funding to further mitigate that risk in this upcoming budget year?</t>
   </si>
   <si>
@@ -352,9 +313,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Mr. Secretary, what priority do you assign to the Department's nuclear deterrence mission?</t>
   </si>
   <si>
@@ -382,9 +340,6 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. I thank the gentleman for yielding.    General Dunford, a couple of years ago, I was in Afghanistan, and you were the senior American commander there, and we had significantly more than 10,000 U.S. forces. In January, I was back in Afghanistan, and General Campbell was the commander there, and it was operating under a force management level of 9,800 troops. Now General Nicholson is on the ground there, and he is currently undertaking a review of the situation there to make his recommendations.    If he were to come back after completing his review with a recommendation to change the force management level--I don't know who invented that term, by the way, but it bothers me a lot, because it is a strategy by political numbers--but if he were to come back and say, ``We need to increase that FML by some unspecified number, 1,000, 2,000 or something like that,'' and if he were to come back and say, ``We need to lift the restrictions that we are operating under that says I can't train and advise and assist below the Afghan corps level,'' and if he were to come back and say, ``I need the authority to unilaterally target the Taliban and the Haqqani network,'' would you support those recommendations going to the President?    General Dunford. Congressman, first of all, General Nicholson is going to provide recommendations, and I know what the President has articulated as the end state, and I can assure you my recommendation, which will forward any recommendation that General Nicholson will make, will be benchmarked against my assessment of our ability to meet our objectives. That is exactly what I did when I was a commander on the ground and exactly what I would do in my current position.</t>
   </si>
   <si>
@@ -406,9 +361,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Gentlemen, thank you for being here this morning and for your service.    Secretary Carter and General Dunford, both of you talked about the threat of North Korea in your opening remarks. And I appreciate your leadership in maintaining the Department's focus both on current and emerging threats in the Asia-Pacific. I think North Korea's launch of their short-range missiles demonstrated just yesterday how serious and important this threat is, which must remain at the forefront as we look at how and where we are placing and investing our defense resources. Obviously, representing Hawaii, this is something that we are keenly aware of, as the threat from North Korea continues with their increased capabilities, as well as people on the West Coast who find themselves within range of their ICBMs [intercontinental ballistic missiles].    Secretary Carter, you discussed the ongoing consultations with South Korea's hosting a THAAD [Terminal High Altitude Area Defense] system. Can you give us an update on those talks and can you also share the Department's commitment to continuing to increase and enhance our missile defense capabilities of the homeland? In particular, in Hawaii we have a test site for the Aegis Ashore at the Pacific Missile Range Facility, and I and others here on the committee are pushing toward operationalizing that to increase that protection.</t>
   </si>
   <si>
@@ -427,9 +379,6 @@
     <t>400655</t>
   </si>
   <si>
-    <t>K. Michael Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Mr. Secretary, thank you for being here. General Austin, CENTCOM [Central Command] commander, said to the Senate Armed Services Committee that additional capabilities are going to be necessary to take Raqqa and Mosul, including additional U.S. personnel, intelligence, logistics, other advise-and-assist teams.    Do you agree with General Austin on the assessment that additional U.S. troops on the ground in Iraq and Syria are going to be necessary to take Mosul and Raqqa, and will you personally support that----</t>
   </si>
   <si>
@@ -478,9 +427,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    As a representative from the Asia-Pacific area, I would like to start off by expressing my sincere sympathy for the people of Belgium and for the family of the marine killed this weekend in Iraq.    I do know that Representative Takai already spoke on China and Representative Gabbard referenced North Korea. So, on Guam, we are considered the tip of the spear in the Asia-Pacific region, and I know the budget request contains nearly $250 million for fiscal year 2017 military construction projects. We are seeing tangible development, such as facility construction, take place. So I am asking, Secretary Carter, what role the administration sees for Guam in the broader strategy; should Congress continue moving forward with construction on Guam? And, additionally, it is often said that budgets reflect priorities, and you spoke to the Senate Armed Services Committee last week about continuing to support the Asia-Pacific rebalance strategy. So would you say that this strategy continues to be a priority of the administration?</t>
   </si>
   <si>
@@ -511,9 +457,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Secretary Carter, General Dunford, Mr. McCord, thanks so much for joining us today.    General Dunford, in the previous hearings that the House Armed Services Committee has held, there has been a lot of discussion about readiness. And, obviously, for all of us, the concern about returning to full-spectrum readiness is at the very top of our list. I think General Milley put it best. He said: Readiness doesn't have a constituency. And I think that is why it is critical for members of the House Armed Services to make sure that we are the constituency for military readiness for our men and women in uniform.    Tell me where we are with the current budget situation with where we project to be with the proposal in fiscal year 2017 on the path to restore readiness. We are right now just at the point of setting conditions to restore readiness. Tell us how far away we are and what milestones you expect to achieve in restoring full-spectrum readiness.    General Dunford. Thanks, Congressman.    With regard to 2017, we took inputs from all the services as to what they needed in fiscal year 2017 along their path to restore readiness, as you've outlined. And that was a priority for the Secretary. And so we fully resourced the service plans for readiness restoration. Keeping in mind that we knew we couldn't get to where we needed to be in 2017 because of the other elements associated with readiness recovery: One, operational tempo; the other the aspect of time.    So with regard to where are we relative to where we need to be, three of the services have indicated that fiscal year 2020 or 2021 would be where they would get to if we are not sequestered and we actually received the resources we project to receive.    The Air Force is a little bit outside of that because of the unique challenges they have, and I think some of the numbers I have seen are as long as 2028, somewhere between 2024 and 2028. So three of the services probably about 5 years away; one of the services may be 7 or 8 years away from full restoration of readiness.</t>
   </si>
   <si>
@@ -532,9 +475,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    And I just want to take a moment to also express my deep condolences and solidarity with our allies in Belgium, across NATO, and across the European Union. This morning's cowardly terrorist attacks were not only an attack on the people of Brussels but an attack against Europe and civilized people everywhere who condone such horrific acts of terror.    Secretary Carter, in your written testimony, you lay out five evolving challenges that are driving the Department's planning and budget. And I want to focus on the fifth challenge: countering terrorism overseas and protecting our homeland. In your written testimony, you also outline three military objectives to defeat ISIL, and you say the third is the most important to protect the homeland again.    With that in mind, please provide the specific steps the Department is taking to coordinate with its interagency partners to protect the homeland and what actions Congress needs to take to bolster those initiatives, funding, legislative.    Additionally, you mentioned the development of DOD's transregional counterterrorism strategy. Could you describe the pillars of that strategy and how it complements current efforts to deny terrorists a safe haven from which they can train, plan, operate, and launch these kind of attacks, for example, here in the homeland?</t>
   </si>
   <si>
@@ -547,9 +487,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman. I appreciate the panelists.    The attack this morning reminds us we are still at war with an evil, determined enemy that must be defeated.    And earlier in the testimony today, we had discussion about restoring deterrence as well, peace through strength. And I am interested in hearing first from General Dunford. The RAND Corporation has published a study, Limiting Regret: Building the Army We Will Need, and here we are talking about the ERI [European Reassurance Initiative] initiative.    And RAND concludes that we are going to need three armored brigade combat teams and associated forces to restore a credible deterrence. I am interested to know whether or not you agree with that assessment, and if you don't, then what you think is necessary to restore that credible deterrence.    And then, for both the Secretary and for the Chief, I have a bill, a bipartisan bill, over 40 cosponsors now, the POSTURE Act, which stops the drawdown for the Army and the Marine Corps. That is the total Army, the Army, the National Guard, the Army Reserve, and the Active Duty Marine Corps and the Marine Corps Reserve.    Assuming that that would come with the necessary resources for operations so that we don't hollow out the force and the complement of modernization that goes with it, I am interested in your assessment on how that would impact the risk that we currently have, given the fact that earlier in your testimony today, Mr. Secretary, you talked about where we are today was based on a series of assumptions which have changed.    So how would this POSTURE Act, if enacted with the necessary resources so we don't hollow out the force, how do you assess that would impact the risk, and how might these additional land forces be arrayed to deal with things, such as the ERI?</t>
   </si>
   <si>
@@ -562,9 +499,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here today.    General Dunford, your statement warns of an expanding Iranian malign influence and increasing capability in the region. In your assessment, is Iran more or less capable today, militarily speaking, than they were the day the nuclear deal was signed?    General Dunford. Congressman, I believe that Iran was spreading malign influences. They were capable of doing that before the agreement, and I think they are capable of doing it after the agreement. I haven't seen any measurable increase in their capabilities. But, again, I am under no illusion about what Iran's intent is, what their capabilities are, or what the current level of activity is across the Middle East.</t>
   </si>
   <si>
@@ -589,9 +523,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I would like to, if we could for a second, talk about our current rules of engagement in our theaters of operation. I have service members who are leaving the military, and they are coming to me saying that this is dangerous. We are not able to engage in a way that will allow us to defeat our enemy.    And I understand the need to try and keep down civilian casualties. I get that completely. But I have a concern that we are protecting our enemies more than we are those that we are sacrificing to try and save. And that is the real concern.    Throughout our history, we have people that have given their lives so that others can live. And with what we see taking place, my concern is that every time we let an enemy go, because of our very restrictive rules of engagement, hundreds if not thousands of more innocents are killed. They become fatalities because of genocide. Are we really winning?    And so I would like you to address our rules of engagement that I am hearing so many complaints about from our service members.</t>
   </si>
   <si>
@@ -625,9 +556,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I want to thank our witnesses for appearing before the committee today. We certainly all greatly appreciate your service to the Nation and over the course of your very distinguished career, so we thank you for your service.    Secretary Carter and General Dunford, over the past decade, the Department has had to reconcile the reality of a reemerging great power competition with the size and composition of our own military today.    Secretary, I highly commend and am very supportive of your vision for the third offset strategy and look forward to seeing how that unfolds and look forward to being supportive as we make that transformation.    Beyond that, as we evaluate the architecture of our future fighting force, what should the balance between the forward-deployed power and sufficient surge Ready Reserve capacity look like across the services?</t>
   </si>
   <si>
@@ -655,9 +583,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    Thank you, Mr. Secretary and General Dunford, for being here.    Mr. Secretary, just following up on Representative Wenstrup's question, but are you aware of any discussions to close the naval station at Guantanamo Bay or transfer it to Cuba?</t>
   </si>
   <si>
@@ -709,9 +634,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    Mr. Secretary, obviously, we are here on a day of tragedy, tragedy for the Belgians, tragedy for the world. ISIS is now taking responsibility for the murders this morning. We had a marine that was killed last weekend in Iraq. I know you feel that personally. We have a law that we passed called the National Defense Authorization Act. It required you to submit to the Congress by February the 15th a plan for defeating these people.    I know you told the chairman that it was imminent. The statute says you shall do it by February the 15th. You are in violation of the law. When an average American is in violation of the law, there are consequences. Would you care to explain to the committee why there shouldn't be consequences for your failure to follow a law that was signed by your President?</t>
   </si>
   <si>
@@ -790,9 +712,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank you, gentlemen.    Secretary Carter, could you just prioritize--I know you have a lot of choices to make and priorities to make--low, medium, or high, the fight against ISIS, the military fight against ISIS in the next 5 years?</t>
   </si>
   <si>
@@ -830,9 +749,6 @@
   </si>
   <si>
     <t>412271</t>
-  </si>
-  <si>
-    <t>Mike Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Mr. Chairman, General Dunford, first of all, thank you all for your service to our country.    General Dunford, how would you assess our combined arms capability today that we have been involved in counterinsurgency warfare for quite some time, although we are more to an advise and assist role. But I am concerned about just the fact that we haven't trained for some time. And how would you make that assessment?    General Dunford. Congressman, there is no question that over the course of almost a decade involved in primarily counterinsurgency operations, the joint force's ability to integrate combined arms at the high end eroded. We are probably about 2\\1/2\\ years or 3 years into focusing on that once again.    Are we where we need to be? No, we are not. And that is exactly why we are focused on both restoring full-spectrum readiness as well as making sure our exercises regenerate the kind of capability that we had some 10 or 15 years ago, that we are all confident that we had 10 or 15 years ago.</t>
@@ -1264,11 +1180,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1290,11 +1204,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1314,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1340,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1366,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1392,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1420,11 +1324,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1444,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1472,11 +1372,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1498,11 +1396,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1522,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1550,11 +1444,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1574,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1600,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1626,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1652,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1678,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1704,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1730,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1756,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1782,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1808,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1834,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1860,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1886,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1912,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1938,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1964,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1990,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2016,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2042,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2068,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2094,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2120,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2146,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2172,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2198,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2224,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2250,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2276,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2302,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2328,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>58</v>
-      </c>
-      <c r="H43" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2354,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2380,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2406,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2432,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2458,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2484,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2510,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2536,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2562,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2588,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2614,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2640,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2666,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2692,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2718,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2744,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2770,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>88</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2796,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2822,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>88</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2848,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2874,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>88</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2900,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2926,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2952,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2978,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3004,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3030,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3056,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3082,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>103</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3108,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3134,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>103</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3160,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3186,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>103</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3212,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3238,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>103</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3264,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3290,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3316,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
-      </c>
-      <c r="G81" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3342,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3368,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
-      </c>
-      <c r="G83" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3394,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3420,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>111</v>
-      </c>
-      <c r="G85" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3446,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G86" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3472,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
-      </c>
-      <c r="G87" t="s">
-        <v>122</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3498,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
-      </c>
-      <c r="G88" t="s">
-        <v>122</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3524,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
-      </c>
-      <c r="G89" t="s">
-        <v>122</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3550,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3576,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" t="s">
-        <v>122</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3602,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3628,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3654,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3680,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
-      </c>
-      <c r="G95" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3706,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3732,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3758,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3784,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3810,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>136</v>
-      </c>
-      <c r="G100" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3836,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3862,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
-      </c>
-      <c r="G102" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3888,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3914,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3940,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3966,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
-      </c>
-      <c r="G106" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3992,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4018,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
-      </c>
-      <c r="G108" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4044,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4070,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>136</v>
-      </c>
-      <c r="G110" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4096,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4122,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s">
-        <v>137</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4148,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>153</v>
-      </c>
-      <c r="G113" t="s">
-        <v>154</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4174,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4200,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" t="s">
-        <v>154</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4226,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4252,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" t="s">
-        <v>154</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4278,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4304,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4330,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4356,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4382,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>164</v>
-      </c>
-      <c r="G122" t="s">
-        <v>165</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4408,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
-      </c>
-      <c r="G123" t="s">
-        <v>165</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4434,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
-      </c>
-      <c r="G124" t="s">
-        <v>165</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4460,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4486,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>164</v>
-      </c>
-      <c r="G126" t="s">
-        <v>165</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4512,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
-      </c>
-      <c r="G127" t="s">
-        <v>172</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4538,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4564,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>171</v>
-      </c>
-      <c r="G129" t="s">
-        <v>172</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4590,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>176</v>
-      </c>
-      <c r="G130" t="s">
-        <v>177</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4616,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4642,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
-      </c>
-      <c r="G132" t="s">
-        <v>177</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4668,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>181</v>
-      </c>
-      <c r="G133" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4694,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>181</v>
-      </c>
-      <c r="G134" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4720,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
-      </c>
-      <c r="G135" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4746,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4772,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>181</v>
-      </c>
-      <c r="G137" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4798,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4824,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>181</v>
-      </c>
-      <c r="G139" t="s">
-        <v>182</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4850,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>190</v>
-      </c>
-      <c r="G140" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4876,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4902,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>190</v>
-      </c>
-      <c r="G142" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4928,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4954,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>190</v>
-      </c>
-      <c r="G144" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4980,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>190</v>
-      </c>
-      <c r="G145" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5006,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5032,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>190</v>
-      </c>
-      <c r="G147" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5058,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5084,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149" t="s">
-        <v>191</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5110,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>202</v>
-      </c>
-      <c r="G150" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5136,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5162,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>202</v>
-      </c>
-      <c r="G152" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5188,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5214,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>202</v>
-      </c>
-      <c r="G154" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5240,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5266,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>202</v>
-      </c>
-      <c r="G156" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5292,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>202</v>
-      </c>
-      <c r="G157" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5318,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>212</v>
-      </c>
-      <c r="G158" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5344,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5370,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>212</v>
-      </c>
-      <c r="G160" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5396,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>212</v>
-      </c>
-      <c r="G161" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5422,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5448,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>212</v>
-      </c>
-      <c r="G163" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5474,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5500,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>212</v>
-      </c>
-      <c r="G165" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5526,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5552,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>212</v>
-      </c>
-      <c r="G167" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5578,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5604,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>212</v>
-      </c>
-      <c r="G169" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5630,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5656,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>212</v>
-      </c>
-      <c r="G171" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5682,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5708,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
-      </c>
-      <c r="G173" t="s">
-        <v>213</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5734,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>230</v>
-      </c>
-      <c r="G174" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5760,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5786,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>230</v>
-      </c>
-      <c r="G176" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5812,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5838,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>230</v>
-      </c>
-      <c r="G178" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5864,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5890,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>230</v>
-      </c>
-      <c r="G180" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5916,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5942,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>230</v>
-      </c>
-      <c r="G182" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5968,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5994,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>230</v>
-      </c>
-      <c r="G184" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6020,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6046,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6072,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>230</v>
-      </c>
-      <c r="G187" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6098,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6124,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>230</v>
-      </c>
-      <c r="G189" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6150,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6176,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>230</v>
-      </c>
-      <c r="G191" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6202,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6228,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>230</v>
-      </c>
-      <c r="G193" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6254,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6280,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>230</v>
-      </c>
-      <c r="G195" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6306,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6332,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>230</v>
-      </c>
-      <c r="G197" t="s">
-        <v>231</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6358,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6384,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>257</v>
-      </c>
-      <c r="G199" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6410,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6436,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>257</v>
-      </c>
-      <c r="G201" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6462,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6488,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>257</v>
-      </c>
-      <c r="G203" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6514,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6540,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>257</v>
-      </c>
-      <c r="G205" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6566,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>257</v>
-      </c>
-      <c r="G206" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6592,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>257</v>
-      </c>
-      <c r="G207" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6618,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>257</v>
-      </c>
-      <c r="G208" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6644,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>257</v>
-      </c>
-      <c r="G209" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6670,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
-      </c>
-      <c r="G210" t="s">
-        <v>258</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6696,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>271</v>
-      </c>
-      <c r="G211" t="s">
-        <v>272</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6722,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>271</v>
-      </c>
-      <c r="G212" t="s">
-        <v>272</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6748,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6774,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>271</v>
-      </c>
-      <c r="G214" t="s">
-        <v>272</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6800,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>271</v>
-      </c>
-      <c r="G215" t="s">
-        <v>272</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6826,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6852,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6878,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>15</v>
-      </c>
-      <c r="G218" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6904,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6930,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
-      </c>
-      <c r="G220" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6956,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
-      </c>
-      <c r="G221" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    I ask unanimous consent that the ranking member's statement be entered into the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 65.]</t>
   </si>
   <si>
@@ -61,9 +70,15 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Carter. Thank you very much, Chairman Thornberry.    Congresswoman Davis, thank you.    Thanks, all the members of the committee. Thank you for hosting me here today.    I want to begin by condemning this morning's bombings in Belgium. Our thoughts and our prayers are with those affected by this tragedy, the victims, their families, and survivors. And in the face of these acts of terrorism, the United States stands in strong solidarity with our ally Belgium. We are continuing to monitor the situation, including to ensure that all U.S. personnel and citizens are accounted for. We also stand ready to provide assistance to our friends and allies in Europe, as necessary.    Brussels is an international city that has been host to NATO [North Atlantic Treaty Organization] and to the European Union [EU] for decades. Together, we must and we will continue to do everything we can to protect our homelands and defeat terrorists wherever they threaten us. No attack--no attack--will affect our resolve to accelerate the defeat of ISIL. I will have more to say about this later in the testimony.    Thank you again for hosting me today and for steadfastly supporting DOD's men and women all over the world, military and civilian, who serve and defend us. I am pleased to be here with Chairman Dunford, Under Secretary McCord, to discuss President Obama's 2017 defense budget, which marks a major inflection point for the Department of Defense.    As I will describe in detail, the threat from terrorism is one of the five challenges, as has been noted, that the United States now faces and will in the future. In this budget, we are taking the long view. We have to, because even as we fight today's fights, we must also be prepared for what might come 10, 20, or 30 years down the road.    Last fall's Bipartisan Budget Act gave us some much-needed stability after years of gridlock and turbulence. And I want to thank you and your colleagues for coming together to help pass it. That budget deal set the size of our budget, and with this degree of certainty, we focused on its shape, changing that shape in fundamental but carefully considered ways to adjust to a new strategic era and to seize opportunities for the future.    Let me describe the strategic assessment that drove our budget decisions. First of all, it is evident that America is still today the world's foremost leader, partner, and underwriter of stability and security in every region of the world, as we have been since World War II. That is thanks in large part to the unequivocal strength of the U.S. military.    And as we continue to fulfill this enduring role, it is also evident that we are entering a new strategic era. Today's security environment is dramatically different from the last 25 years, requiring new ways of investing and operating. Five evolving strategic challenges--namely, Russia, China, North Korea, Iran, and terrorism--are now driving DOD's planning and budgeting, as reflected in this budget.    I want to focus first on our ongoing fight against terrorism and especially ISIL, which as the attacks in Belgium today again remind us, we must and will deal a lasting defeat, most immediately in its parent tumor in Iraq and Syria but also where it is metastasizing, and all the while we are continuing to help protect our own homeland.    Let me give you a quick snapshot of what we are doing to pressure and destroy ISIL's parent tumor in Iraq and Syria. In Iraq, with our support, the Iraqi Security Forces retook Ramadi and are now reclaiming further ground in Anbar Province and are simultaneously shifting the weight of their effort towards Mosul in the north.    With our advice and assistance, Iraqi and Kurdish security forces have begun the shaping and isolation phase of the operation to collapse ISIL's control over Mosul. That was the mission Marine Staff Sergeant Louis Cardin was supporting when he gave his life over the weekend providing critical protection to Iraqi forces and coalition military advisers in northern Iraq. Our thoughts and prayers are with his family and with the other Marines injured in Saturday's rocket attack. Their sacrifice will not be forgotten, and our global coalition will complete the mission they were supporting.    In Syria, capable and motivated local forces supported by the United States in our global coalition have retaken the east Syrian town of Shaddadi. This town served as an important logistical and financial hub for ISIL and a key intersection between its Syria and Iraq operations. In fact, Shaddadi was so important to ISIL that its so-called minister of war was involved in ISIL's defense of the town. We killed him while our local partners expelled ISIL from the town. In doing so, the coalition campaign severed the last major northern artery between Raqqa and Mosul and, therefore, between ISIL and Syria and ISIL and Iraq. And we are intent on further isolating and pressuring ISIL, including by cutting off its remaining lines of communication in southern Syria and into Turkey.    In addition to local forces we are working with, 90 percent of our military and coalition partners from Europe, the Gulf, Asia, 26 countries in all, including, by the way, our ally Belgium, have committed to increase their contributions to help accelerate the defeat of ISIL.    We have increased strikes on ISIL-held cash depots, oil revenues, and sites associated with its ambitions to develop and use chemical weapons. And we are addressing ISIL's metastases as well, having conducted targeted strikes against ISIL in Libya and Afghanistan. As we are accelerating our overall counter-ISIL campaign, we are backing it up with increased funding for 2017, as the chairman already noted, requesting 50 percent more than last year.    Now, before I continue, I want to say a few words about Russia's role in this. Russia said it was coming into Syria to fight ISIL, but that is not what it did. Instead, their military has only prolonged the civil war, propped up Assad, and as of now, we haven't seen whether Russia has retained leverage over Assad to facilitate a diplomatic way forward, which is what the Syrian people need.    One thing is clear, though: Russia's entry into Syria didn't impact our campaign against ISIL. Along with our coalition partners, we are intensifying our campaign against ISIL in both Iraq and Syria and will continue to do so until ISIL is dealt a lasting defeat.    Two of the other four challenges reflect a return in some ways to great superpower competition. One is in Europe, where we are taking a strong and balanced approach to deter Russian aggression. We haven't had to devote a significant portion of our defense investment to this possibility for nearly a quarter century, but now we do.    The other challenge is in the Asia-Pacific, where China is rising, which is fine, but behaving aggressively, which is not. There, we are continuing our rebalance to the region to maintain the stability we have underwritten for the past 70 years, enabling so many nations to rise and prosper in this, the single most consequential region for America's future.    Meanwhile, two other longstanding challenges pose threats in specific regions: North Korea is one. That is why our forces on the Korean Peninsula remain ready, as they say, to fight tonight; the other is Iran, because while the nuclear accord is a good deal for preventing Iran from getting a nuclear weapon, we must still deter Iranian aggression and counter Iran's malign influence against our regional friends and allies, especially Israel, to which we maintain an unwavering and unbreakable commitment.    Now, addressing all of these five challenges requires new investments on our part, new posture in some regions, and also new and enhanced capabilities. For example, we know we must deal with these challenges across all domains and not just the usual air, land, and sea, but also especially in cyber, electronic warfare, and space, where our reliance on technology has given us great strengths and great opportunities but also led to vulnerabilities that our adversaries are eager to exploit.    Key to our approach is being able to deter our most advanced competitors. We must have and we seem to have the ability to ensure that anyone who starts a conflict with us will regret doing so. In our budget, our capabilities, our readiness, and our actions, we must and will be prepared for a high-end enemy, what we call full spectrum.    In this context, Russia and China are our most stressing competitors, as they have both developed and continue to advance military systems that seek to threaten our advantages in specific areas. We see them in the South China Sea and in Crimea and in Syria as well. In some cases, they are developing weapons and ways of war that seek to achieve their objectives rapidly before they think we can respond. Because of this, DOD has elevated their importance in our planning and budgeting.    In my written testimony, I have detailed how our budget makes critical investments to help us better address these five evolving challenges. We are strengthening our deterrence posture in Europe by investing $3.4 billion for our European Reassurance Initiative [ERI], quadruple what we requested last year.    We are prioritizing training and readiness for our ground forces, a very important matter emphasized very appropriately by the chairman, and reinvigorating the readiness and modernization of our fighter aircraft fleet. We are investing in innovative capabilities, like the B-21 Long Range Strike Bomber, micro-drone, and the arsenal plane, as well as advanced munitions of all sorts.    In our Navy, we are emphasizing not just increasing the number of ships, which we are doing, but especially their lethality, with new weapons and high-end ships, and extending our commanding lead in undersea warfare, with new investments in unmanned undersea vehicles, for example, and more submarines with the versatile Virginia Payload Module that triples their strike capacity from 12 Tomahawks to 40.    And we are doing more in cyber, electronic warfare, and space, investing in these three domains a combined total of $34 billion in 2017. Among other things, this will help us build our cyber mission force, develop next-generation electronic jammers, and prepare for the possibility of a conflict that extends into space. In short, DOD will keep ensuring our dominance in all domains.    As we do this, our budget also seizes opportunities for the future. That is a responsibility I have to all my successors, to ensure the military and the Defense Department they inherit is just as strong, if not stronger, than the one I have the privilege of leading today.    That is why we are making increased investments in science and technology, innovating operationally, and building new bridges to the amazing American innovative system, as we always have, to stay ahead of future threats. That is why we are building what I have called the force of the future, because as good as our technology is, it is nothing compared to our people.    And in the future, we must continue to recruit and retain the very best talent. Competing for good people, for an All-Volunteer Force, is a critical part of our military edge, and everyone should understand this need and my commitment to meeting it.    And because we owe it to America's taxpayers to spend our defense dollars as wisely and responsibly as possible, we are also pushing for needed reforms across the DOD enterprise, and we need your help with all of them. From further reducing overhead and excess infrastructure, to modernizing and simplifying TRICARE, to proposing new changes to the Goldwater-Nichols Act that defines much of our institutional organization, as I intend to do shortly, to continuously improving acquisitions.    And on that subject, I want to commend this committee, and especially its leaders, for your continued dedication and strong partnership with DOD on acquisition reform. We have already taken important strides here, such as last year's reforms to reduce redundant reporting requirements and documentation. And as you are looking to do more, so are we.    Chairman Thornberry, I know you laid out new proposals on this last week. Some of what you are proposing would save us critical time in staying ahead of emerging threats. That is very important, and we appreciate that. It is extremely helpful.    And I know this is just a draft, and I appreciate that you put it out there for discussion. In that regard, I have to say that, in the current draft, there are some things that are problematic for us, so I am also hopeful that we can continue to work with you on your proposals to ensure that DOD has the flexibility needed to apply the principles in your work to addressing all the diverse acquisition challenges we have to solve for our warfighters.    I appreciate your willingness to hear our ideas as well, including ways to make it easier for program managers to do their jobs, and involving the service chiefs more in acquisition decisionmaking and accountability. And I look forward to working together as we have before.    Let me close on the broader shift reflected in this budget. The Defense Department doesn't have the luxury of just one opponent or the choice between fights, between future fights and current fights. We have to do it all. That is what this budget is designed to do, and we need your help to succeed.    I thank this committee again for supporting the Bipartisan Budget Act that set the size of our budget. Our submission focuses on the budget shape, making changes that are necessary and consequential. We hope you approve it.    I know some may be looking at the difference between what we indicated last year we would be asking for and what the budget deal gave us: a net total of about $11 billion less is provided by the Bipartisan Budget Act out of a total of almost $600 billion. But I want to reiterate that we have mitigated that difference and that this budget meets our needs.    The budget deal was a good deal. It gave us stability. We are grateful for that. Our greatest risk, DOD's greatest risk is losing that stability this year and having uncertainty and sequester return in future years. That is why, going forward, the biggest budget priority for us strategically is Congress averting the return of sequestration to prevent what would be $100 billion in looming automatic cuts so that we can maintain stability and sustain all these critical investments I have been speaking of.    We have seen this before, and that same support coming together is essential today to address the security challenges we face and to seize the opportunities within our grasp. As long as we work together to do so, I know our national security will be on the right path and America's military will continue to defend our country and help make a better world for generations to come.    Thank you.    [The prepared statement of Secretary Carter can be found in the Appendix on page 67.]    The Chairman. Thank you, sir.    General Dunford.    General Dunford. Chairman Thornberry, Congresswoman Davis, distinguished members of the committee, good morning and thanks for the opportunity to join Secretary Carter and Secretary McCord in appearing before you.    I would like to begin by echoing Secretary Carter's comments on the loss of Staff Sergeant Cardin; his family, the eight other Marines who were injured this weekend, and the victims of this morning's attack in Brussels are in our thoughts and prayers.    I am honored to represent the extraordinary men and women of the joint force. Our soldiers, sailors, airmen, marines, and civil servants remain our single most important competitive advantage. And thanks to your support, the United States military is the most capable fighting force in the world.    I don't believe we should ever send Americans into a fair fight. Rather, we must maintain a joint force that has the capability and credibility to assure our allies and partners, deter aggression, and overmatch any potential adversary. This requires us to continually improve our joint warfighting capabilities, restore full-spectrum readiness, and develop the leaders who will serve as the foundation for the future.    The United States is now confronted with challenges from both traditional state actors and non-state actors. The Department has identified five strategic challenges, and Secretary Carter has outlined those. Russia, China, Iran, and North Korea continue to invest in military capabilities that reduce our competitive advantage.    They are also advancing their interests through competition with a military dimension that falls short of traditional armed conflict and the threshold for traditional military response. Examples include Russian actions in Ukraine, Chinese activities in the South China Sea, and Iran's malign influence across the Middle East.    At the same time, non-state actors, such as ISIL and Al Qaeda, pose a threat to the homeland, the American people, our partners, and our allies. Given the opportunity, such extremist groups would fundamentally change our way of life. As we contend with the Department's five strategic challenges, we recognize that successful execution of our defense strategy requires that we maintain credible nuclear and conventional capabilities.    Our strategic nuclear deterrent remains effective, but it is aging and requires modernization. Therefore, we are prioritizing investments needed for a safe, secure, and effective nuclear deterrent. We are also making investments to maintain a competitive advantage in conventional capabilities, and we must further develop capabilities in vital and increasingly contested domains of space and cyber space.    As the joint force acts to mitigate and respond to challenges, we do so in the context of a fiscal environment that has hampered our ability to plan and allocate resources most effectively. Despite partial relief by Congress from sequester-level funding, the Department has absorbed $800 billion in cuts and faces an additional $100 billion of sequestration-induced risk through fiscal year 2021.    Absorbing significant cuts over the past 5 years has resulted in our underinvesting in critical capabilities. And unless we reverse sequestration, we will be unable to execute the current defense strategy and specifically to address the challenges that Secretary Carter outlined in his remarks.    The fiscal year 2017 budget begins to address the most critical investments required to maintain our competitive advantage. To the extent possible, within the resources provided by the 2015 Bipartisan Budget Act, it addresses the Department's five challenges. It does so by balancing three major areas: investment in high-end capabilities; the capability and capacity to meet our current operational demands; and the need to rebuild readiness after an extended period of war. In the years ahead, we will need adequate funding levels and predictability to fully recover from over a decade at war and delayed modernization.    A bow wave of procurement requirements in the future include the Ohio-class replacement, continued cyber and space investments, and the Long Range Strike Bomber. It will also be several years before we fully restore full-spectrum readiness across the services and replenish our stocks of critical precision munitions. And I know the committee has heard from the service chiefs on the specifics of that readiness recovery.    In summary, I am satisfied that the fiscal year 2017 budget puts us on the right trajectory, but it will take your continued support to ensure the joint force has the depth, flexibility, readiness, and responsiveness that ensures our men and women never face a fair fight.    Once again, thank you for the opportunity to appear before you this morning, and I look forward to your questions.    [The prepared statement of General Dunford can be found in the Appendix on page 104.]    The Chairman. Thank you, sir.    Mr. McCord, I understand you do not have an oral statement. Is that correct?</t>
   </si>
   <si>
+    <t>McCord</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary McCord. That is correct, Mr. Chairman.    The Chairman. I appreciate you being here today as well.    Mr. Secretary, I think you are exactly right to condemn the attacks in Brussels, and you are exactly right to express sympathy for the victims. I think the question especially for this committee but for the American people is, okay, what are we going to do about it?    And in last year's bill, section 1222 asked the administration to provide a strategy for how we were actually going to implement the President's stated desire to degrade and destroy ISIS [Islamic State of Iraq and Syria]. And as I mentioned, it has been radio silent. We have heard not a word from anybody.    Now, to be fair, it is not just a matter for the Department of Defense. It is not just the military who will defeat ISIS, and the requirement in law was not just directed to the Department of Defense. But do you have any idea when we might see a strategy on how to beat ISIS?</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you.    Mr. Secretary, I am going to take you in a different direction, totally different subject. I want to personally thank you and especially thank Secretary Robert Work. I spent 13 years of my life trying to clear the names of two Marine pilots who crashed a V-22 Osprey in Marana, Arizona, on April 8 of the year 2000.    Secretary Carter, I want to thank Secretary Work publicly because he did something that I could not get the Marine Corps to do, and that is to look openly and evaluate the information that we had put together working with experts. Many of those were Marine pilots themselves. There were aeronautical engineers who came to the aid of saying that at the time, if you remember, that Secretary of Defense Cheney wanted to scrap the V-22 program. There was a lot of pressure. There was a lot of push by the Marine Corps to make sure that the V-22 was their plane for the future.    When I reached out and found Secretary Work, he spent the time to meet with me and spent several hours, days, researching all the information that we had put together. A team of experts helped me to put it together. And then he came back with his evaluation that the record needed to be corrected, that it was unfair to Colonel John Brow, pilot, and Major Brooks Gruber, copilot, whose wife brought this to my attention in the year 2002.    And I want to say today that you have brought peace--Secretary Work and you--have brought peace to the families of John Brow and Brooks Gruber. And I believe sincerely that John Brow and Brooks Gruber are now resting in their graves, and they are resting peacefully because of what you and Secretary Work have done.    This has gotten national attention. And I have talked to Trish Brow, and I have talked to Connie Gruber. They are hearing from marines who are now retired. They are hearing from friends from years passed who have said ``Hallelujah'' that now the truth is known and those two pilots will not take the blame for what was unfair at the time of the accident.    So I want to thank you publicly and thank Deputy Secretary Robert Work, because the truth is now known that they were not responsible for that accident. It was a combination of many, many factors. So I will give you a chance to respond, and then I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -106,6 +127,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman.    Mr. Secretary, I think you have an obligation, certainly a right, to respond to something that former Deputy Director of CIA [Central Intelligence Agency] said yesterday in response to a question. He said that ISIL is winning, and he said based on two assessments: one, although there is less caliphate territory, they seem to be spreading their influence beyond the caliphate territory; and then, of course, in direct reference to the attacks in Brussels.    So I wanted to get your assessment about whether you think ISIL is winning, and if not, your assessment of the former Deputy Director of CIA's comments.</t>
   </si>
   <si>
@@ -124,6 +151,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mr. Chairman. And thank all of you gentlemen for being here.    General Dunford, it is always an honor to have the top uniformed officer in the United States before us, and so I am going to direct my questions to you since I only have 5 minutes. And I would like to first ask you a question we have been asking all of our officers before us. Did you submit your written remarks to anyone for approval or review other than someone under your direct command before you had to come before us?    General Dunford. Congressman, I did submit my remarks to the Office of Secretary of Defense as well as Office of Management and Budget. No changes were made in my written remarks as a result of that review.</t>
   </si>
   <si>
@@ -172,6 +205,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to both witnesses for your service and your testimony today. I just have a couple quick questions.    And, Secretary Carter, Admiral Stavridis, retired admiral, Under Secretary Stackley, Secretary Mabus have all appeared over the last couple of weeks, and we have talked about this question of the long view of the undersea fleet, which Admiral Harris and General Breedlove said at this point are kind of playing zone defense out there because of what is happening in the Pacific and the North Atlantic.    Again, this is a good budget in terms of investing, as you point out, in shipbuilding or submarine building, but down the road, you know, there is a possibility that we are going to see a dip at probably the worst possible time. And so I guess the question is, do you agree that this is an issue that we need to work on, as Secretary Stackley has promised, so that we, again, are able to keep our eyes focused on the long view in terms of that emerging challenge?</t>
   </si>
   <si>
@@ -196,6 +235,12 @@
     <t>400279</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Mr. Chairman.    General Dunford, looking back at the 2012-2014 Strategic Guidance and Defense Reviews, what specifically has changed in the geopolitical world? And based on those changes, is it safe to say that we need to look at--following on what Mr. Forbes said--recalibration or resizing of our current forces?    General Dunford. Congressman, thanks. I would say that the most significant changes: one has been Russia; two has been the rise of ISIL. We talked about the behavior of China in the South China Sea, and certainly the capability development of North Korea have all been a concern. Iran remains a concern, but, quite frankly, the trajectory that they have been on was predictable even as those strategy documents were written, and so I think we accounted for Iran; but in the four other areas, we have seen either capability development or behavior or a combination of the two that have significantly changed the operating environment over the last few years.</t>
   </si>
   <si>
@@ -214,6 +259,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And welcome to our guests. It is always good to have you before us. And I think today's tragic events in Brussels really are a stark reminder of the many challenges that you all deal with every day and that we are here to support you with. And I especially appreciated both your comments on the need for budget stability as you deal with the challenges of today, but also with the need to look forward, because as we all know, and I remember a previous chairman, Ike Skelton, always commenting upon, that we plan for today but we never quite know where the next challenge is going to come from. And in the world we live in today, it is clear that they can come from many, many different places.    But, Secretary Carter, I also wanted to thank you for the emphasis that you have placed in this year's budget on research and development, really knowing that it is key to maintaining our technological edge, that in this rapidly changing environment, we have got to maintain our investments. And as many on the committee know, defense-related research and development has faced a disproportionately large cut over the past several years, far more than has been required under the Budget Control Act. So I was especially encouraged to see that the Department will be investing in two new facilities at MIT's [Massachusetts Institute of Technology's] Lincoln Lab. As you know, the lab has provided the Department with breakthrough advancements for decades, and I thank you for your support of the lab's revitalization and the important role that it plays in the Massachusetts innovation ecosystem. It is part of something much larger.    But I would like to turn to the issue of sexual assault prevention and response in the military. I have been troubled by a number of stories, including a series in the AP [Associated Press] and recent stories in the Washington Post, about senior officer sexual assault cases, which have called into question the transparency of the military justice system and the services' willingness to pursue allegations against officers. I understand that the Military Justice Review Group's proposal that was shared with this committee by the Department gives the Department 2 years to come up with a design for an online system of tracking cases and 2 years to implement that system. And I would encourage the Department to work with all speed to make the military justice system as transparent as possible. And I hope the Department will make the system open to survivors and the public as you move ahead.    But we have all heard the troubling accounts of victims of military sexual assault who are later retaliated against, those who seek recourse through the system of justice. Some 62 percent of victims have experienced social or professional retaliation, according to the Department's own survey data. And I have also read the Judicial Proceedings Panel recommendation to implement a standard retaliation reporting form. It is imperative to me that the Department track these incidents and hold those responsible accountable. It is key to maintaining the unit cohesion and all that is part of readiness as well.    So my questions are, Secretary Carter, what is the Department doing to ensure service members who report sexual assault aren't retaliated against?</t>
   </si>
   <si>
@@ -226,6 +277,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. Thank you for being here today.    With the attacks in Brussels, it is another reminder we are in a global war on terrorism, and it is continuing. And I just want you to know that I have faith in you, and we are counting on you to protect American families. And part of that is not forgetting 9/11. This is a continuing war; we will be in it for quite a while, but your service I know I appreciate as a grateful dad of four sons who have served in the military under you all's command.    General Dunford, as Chairman Thornberry has mentioned, we have serious concerns about the state of the Marine Corps aviation. Marine Corps aviators and maintainers at the Marine Corps Air Station in Beaufort, South Carolina, tell us how they have had to cannibalize parts from museum aircraft to get their current fleet in the air. They don't have the parts. They don't have the people. They are not getting the training. Furthermore, General Robert Neller has testified that there aren't enough aircraft to even meet our training and mission requirements. I am very concerned that if they had to deploy tomorrow, they would be sent into a fight unprepared and ill equipped.    How are we addressing this potential reality of an inability to respond to near-peer adversary or multi-adversary engagement? Beyond Marine Corps aviation, what else is at risk?</t>
   </si>
   <si>
@@ -250,6 +304,9 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
+    <t>Takai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman.    Secretary Carter, I would like to talk about the Rim of the Pacific exercises, or RIMPAC. In your letter last year to Senators McCain and Reid, you stated that you believe that China's participation in RIMPAC would advance cooperative approaches to common security challenges, increase transparency and mutual understanding, and integrate China into a cooperative forum. You also say that you may modify our defense engagement decisions based on evolving circumstances.    My question is, have you recently evaluated China, and have you made any changes to the invitation to the PLA [People's Liberation Army] navy to participate in this year's RIMPAC?</t>
   </si>
   <si>
@@ -274,6 +331,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Last week, General Milley stated before the committee, quote, that less than one-third of the Army forces are at acceptable readiness levels to conduct sustained ground combat in a full-spectrum environment against a highly lethal hybrid threat or near-peer adversary. Obviously, this statistic is undoubtedly alarming and illustrates that the risk associated with a less-than-ready military force is unacceptable.    All too often, we speak about military risk in terms of numbers and percentages as opposed to more real and tangible consequences. When asked a similar question last year about risk, then Chief of Staff, Army, General Ray Odierno, made clear that direct correlation existed between increased risk and loss of lives on the battlefield. Quite plainly, Odierno stated that people would die. While I apologize for my frankness, it is critically important that our colleagues in Congress and the general public clearly understand what is meant when you say ``risk.'' We are currently in the throes of our debate on the budget, and there are those who continue to say: We can accept increased risks; we can lower the costs; we can continue to accept sequestration or cuts.    General Dunford, would you please help us better understand what you mean when you say ``risk''? Is there a direct correlation between risk and loss of lives on the battlefield? And, also, is there a direct correlation between risk and winning, knowing that we now have issues with Russia, China, North Korea, and certainly ISIS? Could you give us an understanding of how the word ``risk'' translates?    General Dunford. Congressman, I can. First of all, there is a correlation between risk and casualties. And when I talk about risk against our objectives, I am talking about how long it will take and how many casualties we will suffer. Those are the two elements of risk that I refer to.    You mentioned sequestration, and I will tell you what the risk of sequestration is. The risk of sequestration--and I am talking now the $100 billion that still looms out there--means that we would have to go back and actually rewrite our strategy, and I am talking about the ends of our strategy. So when you talk about winning, there is a correlation also between our ability to win against the current adversaries that we have identified, the peer competitors that we have identified, and sequestration. And my assessment is that we will not be able to deal with the five challenges that Secretary Carter and I outlined in our opening remarks, the Russia, China, Iran, North Korea, and violent extremism. Were we to go to sequester-level funding, I can't imagine us being able to satisfactorily deal with those five challenges and, by the way, the challenges that we can't foresee.</t>
   </si>
   <si>
@@ -289,6 +352,9 @@
     <t xml:space="preserve">    Secretary Carter. We are going to have to agree to disagree about that, about whether we budgeted to BBA, because we believe we did. However, to answer what I gather is part of your question, namely what did we do about the difference between what we said last year we intended to request this year and what we requested this year. I addressed that earlier. That was a $22 billion difference that, because of OCO and some other economic adjustments that went our way, like fuel prices and so forth, ended up being a net of $11 billion. And I explained exactly what we did to adjust and mitigate risk associated with that $11 billion. We cut a lot of minor procurement programs. We scaled back some of our aircraft buys. We took it out of MILCON. That is how we accommodated the $11 billion. We can tell you in detail how that was done.    And I also explained what we didn't do. We didn't go into military pay to make up that difference. We didn't go into the readiness recovery plans that the Chairman has described and that are so critical to restore our readiness, including full-spectrum readiness for the Army and the other services. We didn't cancel any multiyear procurements or other major acquisition programs. And we didn't change any of our force structure targets, number of ships, Army end strength, or anything like that. We did what we did. We have described what it is. We believe that we were able to mitigate that risk, and that is what we did.    Our biggest risk going forward--I will just say it again; we have said it many times--the biggest risk to us strategically in our defense is a return to sequestration, a collapse of the bipartisan budget agreement, and that is our biggest concern.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Mr. Secretary, last week, we were able to listen to testimony from Acting Secretary of the Army Murphy and General Milley. And Secretary Murphy said, to continue this line of questioning on risk begun by Mr. Turner, said something to the effect of this budget places the Army at high risk. And prior to that, General Milley had made that connection explicit between risk and the loss of the service members' lives who we will put in harm's way. We reduce risk, we reduce that loss of life. So there couldn't be anything more serious or grave for us to make a decision on.    My question for you is, is that level of risk comparable in the other service branches? And what is your guidance to us as a committee going into the NDAA as a Congress that might look in the near future at supplemental funding to further mitigate that risk in this upcoming budget year?</t>
   </si>
   <si>
@@ -313,6 +379,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Mr. Secretary, what priority do you assign to the Department's nuclear deterrence mission?</t>
   </si>
   <si>
@@ -340,6 +412,12 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. I thank the gentleman for yielding.    General Dunford, a couple of years ago, I was in Afghanistan, and you were the senior American commander there, and we had significantly more than 10,000 U.S. forces. In January, I was back in Afghanistan, and General Campbell was the commander there, and it was operating under a force management level of 9,800 troops. Now General Nicholson is on the ground there, and he is currently undertaking a review of the situation there to make his recommendations.    If he were to come back after completing his review with a recommendation to change the force management level--I don't know who invented that term, by the way, but it bothers me a lot, because it is a strategy by political numbers--but if he were to come back and say, ``We need to increase that FML by some unspecified number, 1,000, 2,000 or something like that,'' and if he were to come back and say, ``We need to lift the restrictions that we are operating under that says I can't train and advise and assist below the Afghan corps level,'' and if he were to come back and say, ``I need the authority to unilaterally target the Taliban and the Haqqani network,'' would you support those recommendations going to the President?    General Dunford. Congressman, first of all, General Nicholson is going to provide recommendations, and I know what the President has articulated as the end state, and I can assure you my recommendation, which will forward any recommendation that General Nicholson will make, will be benchmarked against my assessment of our ability to meet our objectives. That is exactly what I did when I was a commander on the ground and exactly what I would do in my current position.</t>
   </si>
   <si>
@@ -361,6 +439,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Gentlemen, thank you for being here this morning and for your service.    Secretary Carter and General Dunford, both of you talked about the threat of North Korea in your opening remarks. And I appreciate your leadership in maintaining the Department's focus both on current and emerging threats in the Asia-Pacific. I think North Korea's launch of their short-range missiles demonstrated just yesterday how serious and important this threat is, which must remain at the forefront as we look at how and where we are placing and investing our defense resources. Obviously, representing Hawaii, this is something that we are keenly aware of, as the threat from North Korea continues with their increased capabilities, as well as people on the West Coast who find themselves within range of their ICBMs [intercontinental ballistic missiles].    Secretary Carter, you discussed the ongoing consultations with South Korea's hosting a THAAD [Terminal High Altitude Area Defense] system. Can you give us an update on those talks and can you also share the Department's commitment to continuing to increase and enhance our missile defense capabilities of the homeland? In particular, in Hawaii we have a test site for the Aegis Ashore at the Pacific Missile Range Facility, and I and others here on the committee are pushing toward operationalizing that to increase that protection.</t>
   </si>
   <si>
@@ -379,6 +463,12 @@
     <t>400655</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Mr. Secretary, thank you for being here. General Austin, CENTCOM [Central Command] commander, said to the Senate Armed Services Committee that additional capabilities are going to be necessary to take Raqqa and Mosul, including additional U.S. personnel, intelligence, logistics, other advise-and-assist teams.    Do you agree with General Austin on the assessment that additional U.S. troops on the ground in Iraq and Syria are going to be necessary to take Mosul and Raqqa, and will you personally support that----</t>
   </si>
   <si>
@@ -427,6 +517,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    As a representative from the Asia-Pacific area, I would like to start off by expressing my sincere sympathy for the people of Belgium and for the family of the marine killed this weekend in Iraq.    I do know that Representative Takai already spoke on China and Representative Gabbard referenced North Korea. So, on Guam, we are considered the tip of the spear in the Asia-Pacific region, and I know the budget request contains nearly $250 million for fiscal year 2017 military construction projects. We are seeing tangible development, such as facility construction, take place. So I am asking, Secretary Carter, what role the administration sees for Guam in the broader strategy; should Congress continue moving forward with construction on Guam? And, additionally, it is often said that budgets reflect priorities, and you spoke to the Senate Armed Services Committee last week about continuing to support the Asia-Pacific rebalance strategy. So would you say that this strategy continues to be a priority of the administration?</t>
   </si>
   <si>
@@ -457,6 +553,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Secretary Carter, General Dunford, Mr. McCord, thanks so much for joining us today.    General Dunford, in the previous hearings that the House Armed Services Committee has held, there has been a lot of discussion about readiness. And, obviously, for all of us, the concern about returning to full-spectrum readiness is at the very top of our list. I think General Milley put it best. He said: Readiness doesn't have a constituency. And I think that is why it is critical for members of the House Armed Services to make sure that we are the constituency for military readiness for our men and women in uniform.    Tell me where we are with the current budget situation with where we project to be with the proposal in fiscal year 2017 on the path to restore readiness. We are right now just at the point of setting conditions to restore readiness. Tell us how far away we are and what milestones you expect to achieve in restoring full-spectrum readiness.    General Dunford. Thanks, Congressman.    With regard to 2017, we took inputs from all the services as to what they needed in fiscal year 2017 along their path to restore readiness, as you've outlined. And that was a priority for the Secretary. And so we fully resourced the service plans for readiness restoration. Keeping in mind that we knew we couldn't get to where we needed to be in 2017 because of the other elements associated with readiness recovery: One, operational tempo; the other the aspect of time.    So with regard to where are we relative to where we need to be, three of the services have indicated that fiscal year 2020 or 2021 would be where they would get to if we are not sequestered and we actually received the resources we project to receive.    The Air Force is a little bit outside of that because of the unique challenges they have, and I think some of the numbers I have seen are as long as 2028, somewhere between 2024 and 2028. So three of the services probably about 5 years away; one of the services may be 7 or 8 years away from full restoration of readiness.</t>
   </si>
   <si>
@@ -475,6 +577,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    And I just want to take a moment to also express my deep condolences and solidarity with our allies in Belgium, across NATO, and across the European Union. This morning's cowardly terrorist attacks were not only an attack on the people of Brussels but an attack against Europe and civilized people everywhere who condone such horrific acts of terror.    Secretary Carter, in your written testimony, you lay out five evolving challenges that are driving the Department's planning and budget. And I want to focus on the fifth challenge: countering terrorism overseas and protecting our homeland. In your written testimony, you also outline three military objectives to defeat ISIL, and you say the third is the most important to protect the homeland again.    With that in mind, please provide the specific steps the Department is taking to coordinate with its interagency partners to protect the homeland and what actions Congress needs to take to bolster those initiatives, funding, legislative.    Additionally, you mentioned the development of DOD's transregional counterterrorism strategy. Could you describe the pillars of that strategy and how it complements current efforts to deny terrorists a safe haven from which they can train, plan, operate, and launch these kind of attacks, for example, here in the homeland?</t>
   </si>
   <si>
@@ -487,6 +595,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman. I appreciate the panelists.    The attack this morning reminds us we are still at war with an evil, determined enemy that must be defeated.    And earlier in the testimony today, we had discussion about restoring deterrence as well, peace through strength. And I am interested in hearing first from General Dunford. The RAND Corporation has published a study, Limiting Regret: Building the Army We Will Need, and here we are talking about the ERI [European Reassurance Initiative] initiative.    And RAND concludes that we are going to need three armored brigade combat teams and associated forces to restore a credible deterrence. I am interested to know whether or not you agree with that assessment, and if you don't, then what you think is necessary to restore that credible deterrence.    And then, for both the Secretary and for the Chief, I have a bill, a bipartisan bill, over 40 cosponsors now, the POSTURE Act, which stops the drawdown for the Army and the Marine Corps. That is the total Army, the Army, the National Guard, the Army Reserve, and the Active Duty Marine Corps and the Marine Corps Reserve.    Assuming that that would come with the necessary resources for operations so that we don't hollow out the force and the complement of modernization that goes with it, I am interested in your assessment on how that would impact the risk that we currently have, given the fact that earlier in your testimony today, Mr. Secretary, you talked about where we are today was based on a series of assumptions which have changed.    So how would this POSTURE Act, if enacted with the necessary resources so we don't hollow out the force, how do you assess that would impact the risk, and how might these additional land forces be arrayed to deal with things, such as the ERI?</t>
   </si>
   <si>
@@ -499,6 +613,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here today.    General Dunford, your statement warns of an expanding Iranian malign influence and increasing capability in the region. In your assessment, is Iran more or less capable today, militarily speaking, than they were the day the nuclear deal was signed?    General Dunford. Congressman, I believe that Iran was spreading malign influences. They were capable of doing that before the agreement, and I think they are capable of doing it after the agreement. I haven't seen any measurable increase in their capabilities. But, again, I am under no illusion about what Iran's intent is, what their capabilities are, or what the current level of activity is across the Middle East.</t>
   </si>
   <si>
@@ -523,6 +643,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I would like to, if we could for a second, talk about our current rules of engagement in our theaters of operation. I have service members who are leaving the military, and they are coming to me saying that this is dangerous. We are not able to engage in a way that will allow us to defeat our enemy.    And I understand the need to try and keep down civilian casualties. I get that completely. But I have a concern that we are protecting our enemies more than we are those that we are sacrificing to try and save. And that is the real concern.    Throughout our history, we have people that have given their lives so that others can live. And with what we see taking place, my concern is that every time we let an enemy go, because of our very restrictive rules of engagement, hundreds if not thousands of more innocents are killed. They become fatalities because of genocide. Are we really winning?    And so I would like you to address our rules of engagement that I am hearing so many complaints about from our service members.</t>
   </si>
   <si>
@@ -556,6 +682,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I want to thank our witnesses for appearing before the committee today. We certainly all greatly appreciate your service to the Nation and over the course of your very distinguished career, so we thank you for your service.    Secretary Carter and General Dunford, over the past decade, the Department has had to reconcile the reality of a reemerging great power competition with the size and composition of our own military today.    Secretary, I highly commend and am very supportive of your vision for the third offset strategy and look forward to seeing how that unfolds and look forward to being supportive as we make that transformation.    Beyond that, as we evaluate the architecture of our future fighting force, what should the balance between the forward-deployed power and sufficient surge Ready Reserve capacity look like across the services?</t>
   </si>
   <si>
@@ -583,6 +715,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    Thank you, Mr. Secretary and General Dunford, for being here.    Mr. Secretary, just following up on Representative Wenstrup's question, but are you aware of any discussions to close the naval station at Guantanamo Bay or transfer it to Cuba?</t>
   </si>
   <si>
@@ -634,6 +772,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    Mr. Secretary, obviously, we are here on a day of tragedy, tragedy for the Belgians, tragedy for the world. ISIS is now taking responsibility for the murders this morning. We had a marine that was killed last weekend in Iraq. I know you feel that personally. We have a law that we passed called the National Defense Authorization Act. It required you to submit to the Congress by February the 15th a plan for defeating these people.    I know you told the chairman that it was imminent. The statute says you shall do it by February the 15th. You are in violation of the law. When an average American is in violation of the law, there are consequences. Would you care to explain to the committee why there shouldn't be consequences for your failure to follow a law that was signed by your President?</t>
   </si>
   <si>
@@ -712,6 +856,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank you, gentlemen.    Secretary Carter, could you just prioritize--I know you have a lot of choices to make and priorities to make--low, medium, or high, the fight against ISIS, the military fight against ISIS in the next 5 years?</t>
   </si>
   <si>
@@ -749,6 +899,9 @@
   </si>
   <si>
     <t>412271</t>
+  </si>
+  <si>
+    <t>Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Mr. Chairman, General Dunford, first of all, thank you all for your service to our country.    General Dunford, how would you assess our combined arms capability today that we have been involved in counterinsurgency warfare for quite some time, although we are more to an advise and assist role. But I am concerned about just the fact that we haven't trained for some time. And how would you make that assessment?    General Dunford. Congressman, there is no question that over the course of almost a decade involved in primarily counterinsurgency operations, the joint force's ability to integrate combined arms at the high end eroded. We are probably about 2\\1/2\\ years or 3 years into focusing on that once again.    Are we where we need to be? No, we are not. And that is exactly why we are focused on both restoring full-spectrum readiness as well as making sure our exercises regenerate the kind of capability that we had some 10 or 15 years ago, that we are all confident that we had 10 or 15 years ago.</t>
@@ -1130,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1291,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,5285 +1313,6208 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
       <c r="H32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
       <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
       <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
       <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>105</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G68" t="s">
+        <v>105</v>
+      </c>
       <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>105</v>
+      </c>
       <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G79" t="s">
+        <v>121</v>
+      </c>
       <c r="H79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>121</v>
+      </c>
       <c r="H81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G83" t="s">
+        <v>121</v>
+      </c>
       <c r="H83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G84" t="s">
+        <v>121</v>
+      </c>
       <c r="H84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G85" t="s">
+        <v>121</v>
+      </c>
       <c r="H85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G86" t="s">
+        <v>121</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>132</v>
+      </c>
       <c r="H87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G88" t="s">
+        <v>132</v>
+      </c>
       <c r="H88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G89" t="s">
+        <v>132</v>
+      </c>
       <c r="H89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
       <c r="H91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G93" t="s">
+        <v>141</v>
+      </c>
       <c r="H93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G95" t="s">
+        <v>141</v>
+      </c>
       <c r="H95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G97" t="s">
+        <v>141</v>
+      </c>
       <c r="H97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G98" t="s">
+        <v>149</v>
+      </c>
       <c r="H98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G100" t="s">
+        <v>149</v>
+      </c>
       <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G102" t="s">
+        <v>149</v>
+      </c>
       <c r="H102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G104" t="s">
+        <v>149</v>
+      </c>
       <c r="H104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
       <c r="H106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G108" t="s">
+        <v>149</v>
+      </c>
       <c r="H108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G110" t="s">
+        <v>149</v>
+      </c>
       <c r="H110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G111" t="s">
+        <v>149</v>
+      </c>
       <c r="H111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>120</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G112" t="s">
+        <v>149</v>
+      </c>
       <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G113" t="s">
+        <v>167</v>
+      </c>
       <c r="H113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G115" t="s">
+        <v>167</v>
+      </c>
       <c r="H115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G117" t="s">
+        <v>167</v>
+      </c>
       <c r="H117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G119" t="s">
+        <v>167</v>
+      </c>
       <c r="H119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G121" t="s">
+        <v>167</v>
+      </c>
       <c r="H121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>146</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G122" t="s">
+        <v>179</v>
+      </c>
       <c r="H122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G123" t="s">
+        <v>179</v>
+      </c>
       <c r="H123" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G124" t="s">
+        <v>179</v>
+      </c>
       <c r="H124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G126" t="s">
+        <v>179</v>
+      </c>
       <c r="H126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G127" t="s">
+        <v>187</v>
+      </c>
       <c r="H127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G129" t="s">
+        <v>187</v>
+      </c>
       <c r="H129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G130" t="s">
+        <v>193</v>
+      </c>
       <c r="H130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G132" t="s">
+        <v>193</v>
+      </c>
       <c r="H132" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G133" t="s">
+        <v>199</v>
+      </c>
       <c r="H133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G134" t="s">
+        <v>199</v>
+      </c>
       <c r="H134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G135" t="s">
+        <v>199</v>
+      </c>
       <c r="H135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G137" t="s">
+        <v>199</v>
+      </c>
       <c r="H137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I137" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G139" t="s">
+        <v>199</v>
+      </c>
       <c r="H139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>168</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G140" t="s">
+        <v>209</v>
+      </c>
       <c r="H140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I140" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>168</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G142" t="s">
+        <v>209</v>
+      </c>
       <c r="H142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>168</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G144" t="s">
+        <v>209</v>
+      </c>
       <c r="H144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I144" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>168</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
       <c r="H145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G147" t="s">
+        <v>209</v>
+      </c>
       <c r="H147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I147" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="G149" t="s">
+        <v>209</v>
+      </c>
       <c r="H149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I149" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="G150" t="s">
+        <v>222</v>
+      </c>
       <c r="H150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I150" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="G152" t="s">
+        <v>222</v>
+      </c>
       <c r="H152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I152" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>179</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="G154" t="s">
+        <v>222</v>
+      </c>
       <c r="H154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>179</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="G156" t="s">
+        <v>222</v>
+      </c>
       <c r="H156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="G157" t="s">
+        <v>222</v>
+      </c>
       <c r="H157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G158" t="s">
+        <v>233</v>
+      </c>
       <c r="H158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I158" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G160" t="s">
+        <v>233</v>
+      </c>
       <c r="H160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I160" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G161" t="s">
+        <v>233</v>
+      </c>
       <c r="H161" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I161" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G163" t="s">
+        <v>233</v>
+      </c>
       <c r="H163" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I163" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G165" t="s">
+        <v>233</v>
+      </c>
       <c r="H165" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I165" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G167" t="s">
+        <v>233</v>
+      </c>
       <c r="H167" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G169" t="s">
+        <v>233</v>
+      </c>
       <c r="H169" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I169" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G171" t="s">
+        <v>233</v>
+      </c>
       <c r="H171" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I171" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="G173" t="s">
+        <v>233</v>
+      </c>
       <c r="H173" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I173" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>205</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G174" t="s">
+        <v>252</v>
+      </c>
       <c r="H174" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I174" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>205</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G176" t="s">
+        <v>252</v>
+      </c>
       <c r="H176" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I176" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G178" t="s">
+        <v>252</v>
+      </c>
       <c r="H178" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>205</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G180" t="s">
+        <v>252</v>
+      </c>
       <c r="H180" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I180" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>205</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G182" t="s">
+        <v>252</v>
+      </c>
       <c r="H182" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>205</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G184" t="s">
+        <v>252</v>
+      </c>
       <c r="H184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I184" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>205</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G187" t="s">
+        <v>252</v>
+      </c>
       <c r="H187" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>205</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G189" t="s">
+        <v>252</v>
+      </c>
       <c r="H189" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I189" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>205</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G191" t="s">
+        <v>252</v>
+      </c>
       <c r="H191" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I191" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>205</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G193" t="s">
+        <v>252</v>
+      </c>
       <c r="H193" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I193" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>205</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G195" t="s">
+        <v>252</v>
+      </c>
       <c r="H195" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I195" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
+        <v>18</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>205</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="G197" t="s">
+        <v>252</v>
+      </c>
       <c r="H197" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I197" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>231</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G199" t="s">
+        <v>280</v>
+      </c>
       <c r="H199" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I199" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>231</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G201" t="s">
+        <v>280</v>
+      </c>
       <c r="H201" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>231</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G203" t="s">
+        <v>280</v>
+      </c>
       <c r="H203" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I203" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>231</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G205" t="s">
+        <v>280</v>
+      </c>
       <c r="H205" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I205" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>231</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G206" t="s">
+        <v>280</v>
+      </c>
       <c r="H206" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I206" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>231</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G207" t="s">
+        <v>280</v>
+      </c>
       <c r="H207" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I207" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>231</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G208" t="s">
+        <v>280</v>
+      </c>
       <c r="H208" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>231</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G209" t="s">
+        <v>280</v>
+      </c>
       <c r="H209" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I209" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>231</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="G210" t="s">
+        <v>280</v>
+      </c>
       <c r="H210" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I210" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>244</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>294</v>
+      </c>
+      <c r="G211" t="s">
+        <v>295</v>
+      </c>
       <c r="H211" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I211" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>244</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>294</v>
+      </c>
+      <c r="G212" t="s">
+        <v>295</v>
+      </c>
       <c r="H212" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I212" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G213" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>244</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>294</v>
+      </c>
+      <c r="G214" t="s">
+        <v>295</v>
+      </c>
       <c r="H214" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I214" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>244</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>294</v>
+      </c>
+      <c r="G215" t="s">
+        <v>295</v>
+      </c>
       <c r="H215" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I215" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G216" t="s">
+        <v>20</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>20</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G218" t="s">
+        <v>20</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G219" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>255</v>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -1283,7 +1289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,7 +1297,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,6205 +1322,6688 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>96</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>112</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>114</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>112</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G79" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G84" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G85" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I88" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G89" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G97" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J97" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G102" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I104" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G111" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G113" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I113" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G115" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I115" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I117" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G119" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I119" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G121" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G122" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I122" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G123" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I123" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G124" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G126" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I126" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G127" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I129" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J129" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G130" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I130" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J130" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G132" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I132" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G133" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G134" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I134" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G135" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I135" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G137" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I137" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J137" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G139" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I139" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G140" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I140" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G142" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G144" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I144" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J144" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G145" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I145" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G147" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I147" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J147" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G149" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I149" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J149" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G150" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I150" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J150" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G152" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I152" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G154" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I154" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G156" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I156" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J156" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G157" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I157" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G158" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I158" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>18</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G160" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I160" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J160" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G161" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I161" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J161" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G163" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I163" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J163" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>18</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G165" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I165" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J165" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G167" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I167" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J167" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G169" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I169" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J169" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G171" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I171" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>18</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G173" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I173" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J173" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G174" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I174" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J174" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G176" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I176" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G178" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I178" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>18</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G180" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I180" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J180" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G182" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I182" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J182" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G184" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I184" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J184" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>22</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G187" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G189" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I189" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J189" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G191" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I191" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" t="s">
-        <v>18</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G193" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I193" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J193" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G195" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I195" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J195" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s">
-        <v>18</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G197" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I197" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G199" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I199" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J199" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G201" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I201" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J201" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s">
-        <v>18</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G203" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I203" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J203" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>18</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G205" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I205" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J205" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G206" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I206" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J206" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G207" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I207" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J207" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G208" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J208" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G209" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I209" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J209" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G210" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I210" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J210" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G211" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="I211" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J211" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G212" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="I212" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J212" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" t="s">
-        <v>18</v>
-      </c>
-      <c r="H213" t="s"/>
-      <c r="I213" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213" t="s"/>
+      <c r="J213" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G214" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="I214" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J214" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G215" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="I215" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J215" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
-      </c>
-      <c r="G216" t="s">
-        <v>20</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>20</v>
-      </c>
-      <c r="H217" t="s"/>
-      <c r="I217" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
+        <v>22</v>
+      </c>
+      <c r="I217" t="s"/>
+      <c r="J217" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
-      </c>
-      <c r="G218" t="s">
-        <v>20</v>
-      </c>
-      <c r="H218" t="s"/>
-      <c r="I218" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
+        <v>22</v>
+      </c>
+      <c r="I218" t="s"/>
+      <c r="J218" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219" t="s"/>
-      <c r="I219" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
+        <v>22</v>
+      </c>
+      <c r="I219" t="s"/>
+      <c r="J219" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>17</v>
-      </c>
-      <c r="G220" t="s">
-        <v>18</v>
-      </c>
-      <c r="H220" t="s"/>
-      <c r="I220" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s"/>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" t="s"/>
+      <c r="J220" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" t="s">
-        <v>18</v>
-      </c>
-      <c r="H221" t="s"/>
-      <c r="I221" t="s">
-        <v>306</v>
+        <v>19</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" t="s"/>
+      <c r="J221" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
